--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04717438569641949</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.916521632907754</v>
+        <v>-1.918652854797995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05808063270659496</v>
+        <v>0.05296979261973162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02483577484560313</v>
+        <v>0.01956595882748843</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05414922870407578</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.769788422381861</v>
+        <v>-1.776352082117685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009120767938537061</v>
+        <v>0.003657347568502374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02662543458652201</v>
+        <v>0.02145163373480665</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07156868751204795</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.734310031387744</v>
+        <v>-1.743292171503446</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03900329267611017</v>
+        <v>-0.04283288119823474</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02300046855016653</v>
+        <v>0.01770861626435361</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09634630935594049</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.755113055104414</v>
+        <v>-1.765495285228514</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07680336187414619</v>
+        <v>-0.07983177466352871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04924251534049159</v>
+        <v>0.04295903100825925</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1221417722252553</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.724800594866406</v>
+        <v>-1.733862222947734</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1395909846228306</v>
+        <v>-0.1412027802030425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05901245202640496</v>
+        <v>0.05123050149069436</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1413915669379686</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.579088135740677</v>
+        <v>-1.589538835696552</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2050575879159688</v>
+        <v>-0.2027705381327189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05179400033612001</v>
+        <v>0.0451421955295033</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1496829465808363</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.442347585606361</v>
+        <v>-1.451376159286142</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3105719597123605</v>
+        <v>-0.3041389435636045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08051512724249366</v>
+        <v>0.07324788095944838</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1451016610216155</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.223263012150761</v>
+        <v>-1.231782390644801</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4094817472757744</v>
+        <v>-0.3976813259233831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.106470702552742</v>
+        <v>0.09871393632297221</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1280902290357399</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9391462646795017</v>
+        <v>-0.9423352274192568</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4618855658812381</v>
+        <v>-0.4465388794485565</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1499687209698865</v>
+        <v>0.1414092049882534</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09906354284855083</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7485254660039425</v>
+        <v>-0.7474976315177332</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5769636778586528</v>
+        <v>-0.5569704869798914</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1491581011224166</v>
+        <v>0.1406269174849669</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05749488786766369</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5351231015762379</v>
+        <v>-0.5294031160894311</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7105774390085042</v>
+        <v>-0.6864367077451156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1617345139016091</v>
+        <v>0.1533135116026505</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.0003984713633826466</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2954456359566608</v>
+        <v>-0.2868341773440248</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8459241952109078</v>
+        <v>-0.8217850379666404</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2249298076027105</v>
+        <v>0.2167024096556718</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08106886115109438</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.07594237341479471</v>
+        <v>-0.06512099195585248</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9641731687081826</v>
+        <v>-0.9388290998265596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2901540119511684</v>
+        <v>0.2814449641530117</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1874207896582259</v>
       </c>
       <c r="E15" t="n">
-        <v>0.273102662810118</v>
+        <v>0.2841491290034062</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.100802750494446</v>
+        <v>-1.076708452795136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3213180165338007</v>
+        <v>0.31415308149364</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3151131749214289</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5367508656279832</v>
+        <v>0.5487322991793241</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.236503660999142</v>
+        <v>-1.216120113378298</v>
       </c>
       <c r="G16" t="n">
-        <v>0.339206743847383</v>
+        <v>0.3345728315542738</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4531152587331646</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7864579810884882</v>
+        <v>0.7988628257834589</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.362556621299826</v>
+        <v>-1.344811916735843</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3642383699334278</v>
+        <v>0.361480688432909</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5919345836113545</v>
       </c>
       <c r="E18" t="n">
-        <v>1.021860410774613</v>
+        <v>1.03594315985289</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.558022250830749</v>
+        <v>-1.541585556156566</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4113975568267177</v>
+        <v>0.4096692838315296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7285361943373241</v>
       </c>
       <c r="E19" t="n">
-        <v>1.300104492904299</v>
+        <v>1.311317805124445</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.759314112139166</v>
+        <v>-1.744053996758156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.445168137074224</v>
+        <v>0.4441166923011952</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8625419850402037</v>
       </c>
       <c r="E20" t="n">
-        <v>1.595571492259258</v>
+        <v>1.606394447737321</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.954892284037262</v>
+        <v>-1.942025464730189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5113808254308587</v>
+        <v>0.5099768003746585</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9944906573263506</v>
       </c>
       <c r="E21" t="n">
-        <v>1.806505794704763</v>
+        <v>1.813496013622459</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.178630445024987</v>
+        <v>-2.167361255126035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5854195368586005</v>
+        <v>0.5840627323760393</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.119503212967412</v>
       </c>
       <c r="E22" t="n">
-        <v>1.945068271971984</v>
+        <v>1.950407344831436</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.345648039967082</v>
+        <v>-2.335051743242486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6478655974579627</v>
+        <v>0.6463687052736057</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.228628604056401</v>
       </c>
       <c r="E23" t="n">
-        <v>2.153507754110227</v>
+        <v>2.154729192948357</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.496001494471966</v>
+        <v>-2.486073368864362</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7058398697337096</v>
+        <v>0.704130484967977</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.314666479333402</v>
       </c>
       <c r="E24" t="n">
-        <v>2.270787918838342</v>
+        <v>2.267831910928539</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.740146026357794</v>
+        <v>-2.728933501147209</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7509307955016105</v>
+        <v>0.7500304565642264</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.374844206847089</v>
       </c>
       <c r="E25" t="n">
-        <v>2.428753329813836</v>
+        <v>2.420647131339138</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.901913480520791</v>
+        <v>-2.890035145221895</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7991917957798108</v>
+        <v>0.7960343134224817</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.41086752510087</v>
       </c>
       <c r="E26" t="n">
-        <v>2.586402362945949</v>
+        <v>2.57490730130309</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.073621652444361</v>
+        <v>-3.061525315497166</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8280042157952199</v>
+        <v>0.825476341086411</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.423070728784256</v>
       </c>
       <c r="E27" t="n">
-        <v>2.645513077027275</v>
+        <v>2.631230427520593</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.205460707034947</v>
+        <v>-3.189051557695387</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8703343120243593</v>
+        <v>0.8675341320075654</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.410974621990509</v>
       </c>
       <c r="E28" t="n">
-        <v>2.660157750931857</v>
+        <v>2.645938062190026</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.299084151379472</v>
+        <v>-3.280347027759508</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9002013248510399</v>
+        <v>0.895737406623031</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.375627694933487</v>
       </c>
       <c r="E29" t="n">
-        <v>2.673151278778194</v>
+        <v>2.657198594983811</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.402456283151774</v>
+        <v>-3.37924186214127</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9019689483242606</v>
+        <v>0.8969431052699474</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.320009053861605</v>
       </c>
       <c r="E30" t="n">
-        <v>2.676004975445112</v>
+        <v>2.65797143837237</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.448634069122932</v>
+        <v>-3.421223313135041</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9097524728790924</v>
+        <v>0.9056175246474355</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.249289233857198</v>
       </c>
       <c r="E31" t="n">
-        <v>2.666774927317805</v>
+        <v>2.648428160439924</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.539905928900235</v>
+        <v>-3.507774689567563</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8765469654961331</v>
+        <v>0.8715494547860034</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.168066361828402</v>
       </c>
       <c r="E32" t="n">
-        <v>2.628666350371994</v>
+        <v>2.610905118607237</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.597767658808809</v>
+        <v>-3.560283967454154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8746235141299037</v>
+        <v>0.8690593565361058</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.079850449984079</v>
       </c>
       <c r="E33" t="n">
-        <v>2.558682312200723</v>
+        <v>2.541799383105651</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.646460727335806</v>
+        <v>-3.605067959493401</v>
       </c>
       <c r="G33" t="n">
-        <v>0.892978151103391</v>
+        <v>0.8852686054472602</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9883452506008088</v>
       </c>
       <c r="E34" t="n">
-        <v>2.500281480743103</v>
+        <v>2.483639376573591</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.666943438161292</v>
+        <v>-3.625257902762325</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8910059051444013</v>
+        <v>0.8821064010325671</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8957148512927379</v>
       </c>
       <c r="E35" t="n">
-        <v>2.436791845466319</v>
+        <v>2.421741074628442</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.643196998687789</v>
+        <v>-3.599617918285897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8452570393837967</v>
+        <v>0.8355500634627354</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8062221980476186</v>
       </c>
       <c r="E36" t="n">
-        <v>2.354494255709112</v>
+        <v>2.338308617084777</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.625246884628476</v>
+        <v>-3.581374249660462</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8388854099807715</v>
+        <v>0.8284669774168822</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.723326657500927</v>
       </c>
       <c r="E37" t="n">
-        <v>2.198178416772741</v>
+        <v>2.184624538119221</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.570919614656783</v>
+        <v>-3.526973000790067</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7928563688165755</v>
+        <v>0.7826378366810914</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6485468517226907</v>
       </c>
       <c r="E38" t="n">
-        <v>2.116197204858916</v>
+        <v>2.101776041669559</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.52796778087473</v>
+        <v>-3.484443004132523</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7810228930626369</v>
+        <v>0.7721706095244419</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5828999518499728</v>
       </c>
       <c r="E39" t="n">
-        <v>2.029375884147091</v>
+        <v>2.016234398503352</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.415548187193192</v>
+        <v>-3.373228322088341</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7257575076946485</v>
+        <v>0.7174010401796631</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5250432334214996</v>
       </c>
       <c r="E40" t="n">
-        <v>1.904598666344222</v>
+        <v>1.891561065962488</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.331165022100262</v>
+        <v>-3.289861973347771</v>
       </c>
       <c r="G40" t="n">
-        <v>0.691692585871459</v>
+        <v>0.6835501849569705</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4743804596106814</v>
       </c>
       <c r="E41" t="n">
-        <v>1.78964490187739</v>
+        <v>1.779121010032374</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.272703590906473</v>
+        <v>-3.231778306743094</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6429027151685016</v>
+        <v>0.6359235143846543</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4296524383754384</v>
       </c>
       <c r="E42" t="n">
-        <v>1.648642694972153</v>
+        <v>1.640996110080874</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.20926432424157</v>
+        <v>-3.169450297577829</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5950446637853541</v>
+        <v>0.5886525721337521</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3893891115203408</v>
       </c>
       <c r="E43" t="n">
-        <v>1.523530211096447</v>
+        <v>1.517147563559572</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.09951662801844</v>
+        <v>-3.062077009199181</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5396313206199634</v>
+        <v>0.5337366190106924</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3527981852423609</v>
       </c>
       <c r="E44" t="n">
-        <v>1.326961981171053</v>
+        <v>1.323047395616378</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.043102208691902</v>
+        <v>-3.006758107181069</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4922360308584784</v>
+        <v>0.4871330608672216</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3179930805210972</v>
       </c>
       <c r="E45" t="n">
-        <v>1.141890386907639</v>
+        <v>1.139573430761085</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.925224703707254</v>
+        <v>-2.890846552078925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4443339069399346</v>
+        <v>0.440022668566692</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2841356879118083</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9603398734185752</v>
+        <v>0.9618509317750239</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.760113245921054</v>
+        <v>-2.728633650504601</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3877069950320211</v>
+        <v>0.3833831645058081</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2501363296531813</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8833183957559686</v>
+        <v>0.8859706179753604</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.715278885269925</v>
+        <v>-2.68403854075991</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3510622558690198</v>
+        <v>0.3471445222761024</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2154262465436278</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7324832913999664</v>
+        <v>0.7378947691389981</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.636499228248826</v>
+        <v>-2.60629852336843</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3577549851727903</v>
+        <v>0.3544637111901506</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1806725862421787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5923137406098975</v>
+        <v>0.5998831985642326</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.578306167315219</v>
+        <v>-2.548397442981823</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3129772892100283</v>
+        <v>0.3100905381415629</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1458414071100365</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4547822458671286</v>
+        <v>0.4646985663313229</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.51845409022776</v>
+        <v>-2.488723230055072</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2639670558300888</v>
+        <v>0.2623694264219686</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1118738845606207</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3385236195487385</v>
+        <v>0.3497542459792189</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.489227703183448</v>
+        <v>-2.459878542647676</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2471895860161448</v>
+        <v>0.2455951046462672</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07931311003125803</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1791888119377125</v>
+        <v>0.1917856869654819</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.494414096188134</v>
+        <v>-2.464491205682648</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2326141689529004</v>
+        <v>0.2309032101680466</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04847321354239597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1158912069937266</v>
+        <v>0.1312536336176213</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.400850464570218</v>
+        <v>-2.373227216000952</v>
       </c>
       <c r="G53" t="n">
-        <v>0.194979371762601</v>
+        <v>0.1935847908211286</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01949222234870797</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01225778804728933</v>
+        <v>0.0279696469161128</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.356086934779548</v>
+        <v>-2.329641839522575</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1718460127368448</v>
+        <v>0.1705143925602244</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.008221940890939441</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0772928818208707</v>
+        <v>-0.06088530650043233</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.311364329486032</v>
+        <v>-2.286632554042594</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1538234937979519</v>
+        <v>0.1529750974915708</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03540812513627253</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1183527446191204</v>
+        <v>-0.1013202837075257</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.281601988930917</v>
+        <v>-2.258608717606957</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1251133850254273</v>
+        <v>0.1243232274265344</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.06301957483479598</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.191725645958552</v>
+        <v>-0.17353470697368</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.25401336878232</v>
+        <v>-2.232021173619506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1258295637256192</v>
+        <v>0.1243342455603835</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.09239698611010427</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2681127939152744</v>
+        <v>-0.2501768460280531</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.235314021621268</v>
+        <v>-2.214152908554501</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1122615189000072</v>
+        <v>0.1106607414536444</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1243217150199293</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3401131505809317</v>
+        <v>-0.3232160553137688</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.227892521464335</v>
+        <v>-2.207382265304226</v>
       </c>
       <c r="G59" t="n">
-        <v>0.09178825218924919</v>
+        <v>0.09020006689585679</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1594192479301895</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3821520532726305</v>
+        <v>-0.3647418277719236</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.240176166686966</v>
+        <v>-2.219212593019922</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06359442168851126</v>
+        <v>0.06255242103021021</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1975969153586606</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4076385708847313</v>
+        <v>-0.3907981403059352</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.182623731535727</v>
+        <v>-2.16426909456224</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02334675275685268</v>
+        <v>0.02324601553308943</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2383901388235941</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4508642839938907</v>
+        <v>-0.4334572065314264</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.162016673199658</v>
+        <v>-2.144840976548025</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05939493867288103</v>
+        <v>0.05903291427498187</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2826769590529139</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4608278250317241</v>
+        <v>-0.443667868571304</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.184552691968881</v>
+        <v>-2.168570101811194</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02726763438801269</v>
+        <v>0.0272912446748322</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3308214685470486</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4521722938836916</v>
+        <v>-0.4335012790668228</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.148487978852079</v>
+        <v>-2.135148166799056</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009020030714773817</v>
+        <v>0.009473348221708415</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3835186329549017</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5043699159842651</v>
+        <v>-0.4863237867585526</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.158233518241612</v>
+        <v>-2.145010970613126</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00955519721601605</v>
+        <v>0.009692136879569211</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4403050527069592</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5240278407901893</v>
+        <v>-0.5059218988378675</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.145188047764272</v>
+        <v>-2.13263603228146</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0221471219061011</v>
+        <v>-0.02246035171123994</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4994693918822526</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.542352571400372</v>
+        <v>-0.5257702799574692</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.178902750332972</v>
+        <v>-2.165507847610703</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02128141138938573</v>
+        <v>-0.0219188891335125</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5595866379668004</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4896134867220711</v>
+        <v>-0.4725070469117752</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.20988023364973</v>
+        <v>-2.197008692285294</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04390006616247661</v>
+        <v>-0.04427153467510357</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6183503824706311</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4504786493091721</v>
+        <v>-0.4344960591514849</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.236946279450056</v>
+        <v>-2.223521470364483</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07377180104652106</v>
+        <v>-0.07394966520722804</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6738389404246731</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.369156951407172</v>
+        <v>-0.3542761746343953</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.246076377363161</v>
+        <v>-2.232662586411437</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08196771861113374</v>
+        <v>-0.0821046582746869</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7239036030361771</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3157142801816498</v>
+        <v>-0.3006635093437726</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.272104357552989</v>
+        <v>-2.258496175239784</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08869507633557289</v>
+        <v>-0.08823231471391048</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7664871318142928</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2569199439437052</v>
+        <v>-0.2413623389487692</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.325739846120871</v>
+        <v>-2.311649226946987</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07468473213687546</v>
+        <v>-0.07370884028166903</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8002213530970401</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1290513525866012</v>
+        <v>-0.1135771706050942</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.334874666091339</v>
+        <v>-2.320972142202451</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09029900182017828</v>
+        <v>-0.08928375948693934</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.823454751197403</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05473561379351054</v>
+        <v>-0.03956364348329321</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.37868276627538</v>
+        <v>-2.364903802887514</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07904161706463576</v>
+        <v>-0.07778082774847392</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8356127529792449</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0387422337822947</v>
+        <v>0.05488379987123326</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.410063985496752</v>
+        <v>-2.396002485676612</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08510473871988601</v>
+        <v>-0.08344414854691379</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8366085492578177</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1754080180083482</v>
+        <v>0.191571620364985</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.432775507398</v>
+        <v>-2.419227924820964</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09754578585464665</v>
+        <v>-0.09512651846520749</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8265186518453873</v>
       </c>
       <c r="E77" t="n">
-        <v>0.318827918283903</v>
+        <v>0.3352008651836728</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.366483331075739</v>
+        <v>-2.355077201513234</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1088834455853755</v>
+        <v>-0.1050617271588574</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8067648607714428</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5013921000870846</v>
+        <v>0.5181916061687268</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.358325976979598</v>
+        <v>-2.348106657834554</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.08264769487153564</v>
+        <v>-0.07955002524081589</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7781836179931583</v>
       </c>
       <c r="E79" t="n">
-        <v>0.621478740908478</v>
+        <v>0.6383900023477326</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.288618179164115</v>
+        <v>-2.279326744291077</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0749932398846504</v>
+        <v>-0.07028062663547613</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7420192290858451</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7776544921430535</v>
+        <v>0.7941769708593468</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.264741096103545</v>
+        <v>-2.256805678703507</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.05413119045093108</v>
+        <v>-0.04955866490355258</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6999116038292594</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8983046318098725</v>
+        <v>0.9156534705648487</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.223628503664731</v>
+        <v>-2.216416348050931</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02796312255930714</v>
+        <v>-0.02289635500784023</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6529043467574034</v>
       </c>
       <c r="E82" t="n">
-        <v>1.051680203027654</v>
+        <v>1.06848443116666</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.167346301944383</v>
+        <v>-2.160371036208339</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.03373662469623807</v>
+        <v>-0.0280969141846177</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.602544129131205</v>
       </c>
       <c r="E83" t="n">
-        <v>1.120406599921006</v>
+        <v>1.137262770691015</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.107100720076599</v>
+        <v>-2.101551515664453</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.008829346120775983</v>
+        <v>-0.002434106430931288</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5494474745065492</v>
       </c>
       <c r="E84" t="n">
-        <v>1.255655766937889</v>
+        <v>1.272916460622072</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.023902791382008</v>
+        <v>-2.019075274736979</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02017825226567439</v>
+        <v>0.02652627138188007</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4941674213347304</v>
       </c>
       <c r="E85" t="n">
-        <v>1.265546903096142</v>
+        <v>1.282815466875932</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.862894014435479</v>
+        <v>-1.860285864751484</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03573428324148909</v>
+        <v>0.04212637489309119</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4373544206231652</v>
       </c>
       <c r="E86" t="n">
-        <v>1.30791162774595</v>
+        <v>1.325877481996476</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.765154510088752</v>
+        <v>-1.763818954864328</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05608477646078568</v>
+        <v>0.06217780447934065</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3790698202733462</v>
       </c>
       <c r="E87" t="n">
-        <v>1.312263790616347</v>
+        <v>1.332228649150925</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571803575247297</v>
+        <v>-1.571735892425081</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04987999308461837</v>
+        <v>0.05610209067111999</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3212746192951388</v>
       </c>
       <c r="E88" t="n">
-        <v>1.300231988453124</v>
+        <v>1.32212974246866</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.423590786747381</v>
+        <v>-1.423996883680677</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07755597129444837</v>
+        <v>0.08415425945094085</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2655980792044674</v>
       </c>
       <c r="E89" t="n">
-        <v>1.310400151976727</v>
+        <v>1.332793722015472</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.232130248870609</v>
+        <v>-1.231757993348421</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07225467489390765</v>
+        <v>0.07848306855689446</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2148204044212232</v>
       </c>
       <c r="E90" t="n">
-        <v>1.251297307991007</v>
+        <v>1.27339811047319</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.064420872524702</v>
+        <v>-1.064771878788752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08164369895246625</v>
+        <v>0.08787996271105958</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1722934568741622</v>
       </c>
       <c r="E91" t="n">
-        <v>1.191659297504046</v>
+        <v>1.213091141859676</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8749829492188004</v>
+        <v>-0.874920775463509</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04917955457563956</v>
+        <v>0.05547720507996361</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1400374592061093</v>
       </c>
       <c r="E92" t="n">
-        <v>1.177386092112091</v>
+        <v>1.198581833599526</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7126645883633489</v>
+        <v>-0.7115029622518291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03062029511638316</v>
+        <v>0.03729728422894067</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1193214199954812</v>
       </c>
       <c r="E93" t="n">
-        <v>1.160312706703342</v>
+        <v>1.180323211792438</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5360202924753793</v>
+        <v>-0.53530726181343</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01560100466093199</v>
+        <v>0.02115099608263822</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1096246622138539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.128525390548675</v>
+        <v>1.148276182482756</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4108637360642763</v>
+        <v>-0.4075268155271189</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.006553314471375188</v>
+        <v>-0.0001533527241665915</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1095588212267744</v>
       </c>
       <c r="E95" t="n">
-        <v>1.102465929976421</v>
+        <v>1.119882451553613</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2753784661791984</v>
+        <v>-0.2719707147815824</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01017355845036677</v>
+        <v>-0.004478757269500882</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1169526765193689</v>
       </c>
       <c r="E96" t="n">
-        <v>1.069663371488514</v>
+        <v>1.087588301241887</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1696437317058246</v>
+        <v>-0.1652884207971856</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0450128976812362</v>
+        <v>-0.03937003913137323</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1270096393755716</v>
       </c>
       <c r="E97" t="n">
-        <v>1.018257481005955</v>
+        <v>1.035464658040014</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08727058903079576</v>
+        <v>-0.08310888247407675</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07549377796522401</v>
+        <v>-0.06985878951096755</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1345709048981397</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9610592001570096</v>
+        <v>0.9761225631478572</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0734176467442284</v>
+        <v>-0.07043015845199969</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09938109215008326</v>
+        <v>-0.09418210699242707</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1362189395856942</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9121276677331351</v>
+        <v>0.9255178483980401</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.01221191321245116</v>
+        <v>-0.008859252484080695</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1374125421589505</v>
+        <v>-0.1317854238003005</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1308284754733211</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8977552991365385</v>
+        <v>0.908085586629635</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0403241229992019</v>
+        <v>0.04203980384141964</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1376014244535065</v>
+        <v>-0.1324874363284006</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1223910410950056</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8404972055609834</v>
+        <v>0.8487733981007825</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06412644015151089</v>
+        <v>0.06637099141848568</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1663855121247322</v>
+        <v>-0.1620176090631228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1135621617801031</v>
       </c>
       <c r="E102" t="n">
-        <v>0.78364048686136</v>
+        <v>0.7892550130670396</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1103538077249908</v>
+        <v>0.1116602435956704</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1570358385442061</v>
+        <v>-0.1530740324158923</v>
       </c>
     </row>
   </sheetData>
